--- a/test/helper/foo.xlsx
+++ b/test/helper/foo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dami\Desktop\porcupine_ruby\test\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\c\porcupine\test\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>General</t>
   </si>
@@ -87,19 +87,25 @@
     <t>12/24/1154</t>
   </si>
   <si>
-    <t>hjabia</t>
-  </si>
-  <si>
-    <t>ima</t>
-  </si>
-  <si>
-    <t>vez</t>
-  </si>
-  <si>
-    <t>un pato</t>
-  </si>
-  <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>baz</t>
+  </si>
+  <si>
+    <t>qux</t>
+  </si>
+  <si>
+    <t>𐐀34</t>
+  </si>
+  <si>
+    <t>foo你bar好qaz</t>
   </si>
 </sst>
 </file>
@@ -553,9 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,7 +710,9 @@
       <c r="I4">
         <v>1E-3</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" s="50">
         <v>543415635644</v>
       </c>
@@ -724,7 +730,9 @@
       <c r="H5" s="39">
         <v>1.5</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>24</v>
+      </c>
       <c r="K5" s="51">
         <v>34580585</v>
       </c>
@@ -905,7 +913,7 @@
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="E23" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -938,22 +946,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
